--- a/target/test-classes/testdata/master.xlsx
+++ b/target/test-classes/testdata/master.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{642F28A3-71BF-4E18-B42F-3634446055C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{45D460D4-B99F-4582-89EF-3A39A546996A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="20790" windowHeight="11820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="20790" windowHeight="11820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>Omchild@123</t>
-  </si>
-  <si>
     <t>atfdc</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>ie</t>
+  </si>
+  <si>
+    <t>OOOOOOOO</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -605,7 +605,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,10 +643,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>4</v>
@@ -657,10 +657,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>5</v>
@@ -671,13 +671,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -685,7 +685,7 @@
     </row>
     <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -710,10 +710,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>4</v>
@@ -724,10 +724,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>5</v>
@@ -738,29 +738,29 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="trainer@way2automation.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{A171F490-0848-4E54-96C9-C6EF9DCC6895}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{96E3CE17-D1BB-42F0-B196-2B478209A1E5}"/>
-    <hyperlink ref="B5" r:id="rId4" display="trainer@way2automation.com" xr:uid="{26A0E3AB-CBA6-4C5F-B77B-593D9D94E7AF}"/>
-    <hyperlink ref="B9" r:id="rId5" display="trainer@way2automation.com" xr:uid="{3496DD24-747B-4C51-ACDA-F0F164A40C8F}"/>
-    <hyperlink ref="C9" r:id="rId6" display="Omchild@123" xr:uid="{9C23433A-6BC6-46F1-B268-BF5A1AD6234B}"/>
-    <hyperlink ref="C11" r:id="rId7" display="Omchild@123" xr:uid="{D78C8E12-5C5A-4325-9233-148492E64F60}"/>
-    <hyperlink ref="B11" r:id="rId8" display="trainer@way2automation.com" xr:uid="{6583C72E-CF03-4D56-9CA4-5FEC9858B372}"/>
-    <hyperlink ref="C10" r:id="rId9" display="Omchild@123" xr:uid="{4EA1BB1F-0397-44C6-B809-E00051B17EF3}"/>
-    <hyperlink ref="B10" r:id="rId10" display="trainer@way2automation.com" xr:uid="{CE7B2C2C-E15A-4778-87C7-EEDDF3B847C0}"/>
-    <hyperlink ref="C4" r:id="rId11" xr:uid="{35250F3F-490E-4F32-BE37-C28923C5562B}"/>
-    <hyperlink ref="B4" r:id="rId12" display="trainer@way2automation.com" xr:uid="{089A0CA0-CBF7-47C2-B4B6-42C5892E7AE0}"/>
+    <hyperlink ref="C3" r:id="rId2" display="Omchild@123" xr:uid="{A171F490-0848-4E54-96C9-C6EF9DCC6895}"/>
+    <hyperlink ref="B5" r:id="rId3" display="trainer@way2automation.com" xr:uid="{26A0E3AB-CBA6-4C5F-B77B-593D9D94E7AF}"/>
+    <hyperlink ref="B9" r:id="rId4" display="trainer@way2automation.com" xr:uid="{3496DD24-747B-4C51-ACDA-F0F164A40C8F}"/>
+    <hyperlink ref="C9" r:id="rId5" display="Omchild@123" xr:uid="{9C23433A-6BC6-46F1-B268-BF5A1AD6234B}"/>
+    <hyperlink ref="C11" r:id="rId6" display="Omchild@123" xr:uid="{D78C8E12-5C5A-4325-9233-148492E64F60}"/>
+    <hyperlink ref="B11" r:id="rId7" display="trainer@way2automation.com" xr:uid="{6583C72E-CF03-4D56-9CA4-5FEC9858B372}"/>
+    <hyperlink ref="C10" r:id="rId8" display="Omchild@123" xr:uid="{4EA1BB1F-0397-44C6-B809-E00051B17EF3}"/>
+    <hyperlink ref="B10" r:id="rId9" display="trainer@way2automation.com" xr:uid="{CE7B2C2C-E15A-4778-87C7-EEDDF3B847C0}"/>
+    <hyperlink ref="B4" r:id="rId10" display="trainer@way2automation.com" xr:uid="{089A0CA0-CBF7-47C2-B4B6-42C5892E7AE0}"/>
+    <hyperlink ref="C4" r:id="rId11" display="Omchild@123" xr:uid="{76A81087-622C-49B1-B143-20AB76A6F856}"/>
+    <hyperlink ref="C5" r:id="rId12" display="Omchild@123" xr:uid="{EAB6DA55-72BC-4C5F-9CCB-D314AC4AEA60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
